--- a/gitbook/References/References_Long_V20.xlsx
+++ b/gitbook/References/References_Long_V20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumin\Downloads\bookdown-demo-master\References\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\survey-of-DL-for-scRNA-seq-analysis\gitbook\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F48F58-5EA2-484B-B662-4FD6BE3EAA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB78F12E-67C2-4348-9BC7-76A07A24ACCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21972" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{265AF9F1-40DC-46AB-8BE3-06192F7A8347}"/>
+    <workbookView xWindow="-8064" yWindow="1068" windowWidth="14376" windowHeight="9192" xr2:uid="{265AF9F1-40DC-46AB-8BE3-06192F7A8347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11893,14 +11893,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE3C65-1B6B-4DFF-8343-9B053DD548FA}">
   <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="251.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
